--- a/biology/Zoologie/Andrena_aberrans/Andrena_aberrans.xlsx
+++ b/biology/Zoologie/Andrena_aberrans/Andrena_aberrans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andrena aberrans est une espèce d'abeilles de la famille des Andrenidae, du genre Andrena. Absente en Europe occidentale, elle est signalée en Allemagne, Suisse, Italie, en Europe de l'Est jusqu'en Ukraine et en Grèce[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrena aberrans est une espèce d'abeilles de la famille des Andrenidae, du genre Andrena. Absente en Europe occidentale, elle est signalée en Allemagne, Suisse, Italie, en Europe de l'Est jusqu'en Ukraine et en Grèce.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Andrena ratisbonensis Stoeckhert, 1924,
-Nom vernaculaire : Andrène des cytises[2]</t>
+Nom vernaculaire : Andrène des cytises</t>
         </is>
       </c>
     </row>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
